--- a/CompetenceDF.xlsx
+++ b/CompetenceDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draft\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B48B9652-D432-4F9E-A6C5-5ACB018140FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC0486FE-2C5E-4E2E-BF14-7AA6B6841569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio : hugoandreau.fr</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -250,6 +244,12 @@
   </si>
   <si>
     <t>Creation d'une application angular, qui exploitait des donnée récuperer par ORM depuis C# ASP net Core</t>
+  </si>
+  <si>
+    <t>Adresse URL du portfolio : https://draft-yt.github.io/Porfolio/main.html</t>
+  </si>
+  <si>
+    <t>NOM et prénom : damien fourel</t>
   </si>
 </sst>
 </file>
@@ -773,15 +773,45 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,36 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1155,22 +1155,22 @@
   </sheetPr>
   <dimension ref="A1:AQ128"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="70.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
-    <col min="5" max="8" width="18.7265625" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.54296875" customWidth="1"/>
-    <col min="44" max="16384" width="10.7265625" style="1"/>
+    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="18.7109375" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.5703125" customWidth="1"/>
+    <col min="44" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H1" s="27"/>
     </row>
-    <row r="2" spans="1:43" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
@@ -1196,99 +1196,99 @@
       <c r="G2" s="27"/>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="46"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="35"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="B6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="D7" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="G7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1326,17 +1326,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1373,9 +1373,9 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -1420,20 +1420,20 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
       <c r="D10" s="15"/>
       <c r="E10" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1471,17 +1471,17 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
       <c r="D11" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -1522,9 +1522,9 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
@@ -1533,7 +1533,7 @@
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1571,19 +1571,19 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
       <c r="D13" s="9"/>
       <c r="E13" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="25"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1620,22 +1620,22 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="9"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1673,22 +1673,22 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="15"/>
       <c r="F15" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1726,20 +1726,20 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="15"/>
       <c r="D16" s="9"/>
       <c r="E16" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1777,7 +1777,7 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="5"/>
       <c r="C17" s="15"/>
@@ -1822,7 +1822,7 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
       <c r="C18" s="15"/>
@@ -1867,17 +1867,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1914,12 +1914,12 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1963,12 +1963,12 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="5"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="17"/>
@@ -2008,13 +2008,13 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2057,20 +2057,20 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -2108,16 +2108,16 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="17"/>
@@ -2157,19 +2157,19 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25"/>
@@ -2208,7 +2208,7 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="5"/>
       <c r="C26" s="10"/>
@@ -2253,17 +2253,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2300,12 +2300,12 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -2349,14 +2349,14 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="9"/>
       <c r="D29" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2398,14 +2398,14 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="9"/>
       <c r="D30" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2447,15 +2447,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2496,19 +2496,19 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32"/>
@@ -2547,7 +2547,7 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="5"/>
       <c r="C33" s="9"/>
@@ -2592,7 +2592,7 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="5"/>
       <c r="C34" s="9"/>
@@ -2637,7 +2637,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="5"/>
       <c r="C35" s="9"/>
@@ -2647,7 +2647,7 @@
       <c r="G35" s="9"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="5"/>
       <c r="C36" s="9"/>
@@ -2657,7 +2657,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="17"/>
     </row>
-    <row r="37" spans="1:43" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="5"/>
       <c r="C37" s="9"/>
@@ -2667,50 +2667,50 @@
       <c r="G37" s="9"/>
       <c r="H37" s="17"/>
     </row>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -2720,18 +2720,13 @@
       <c r="G81"/>
       <c r="H81"/>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G128" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2739,6 +2734,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2749,20 +2749,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="07ce9906-2010-497a-a1a4-b77ce3020425" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="07ce9906-2010-497a-a1a4-b77ce3020425" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2916,6 +2916,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2929,14 +2937,6 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="07ce9906-2010-497a-a1a4-b77ce3020425"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
